--- a/data/Andante/activity-client_structure.xlsx
+++ b/data/Andante/activity-client_structure.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3025" uniqueCount="273">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3034" uniqueCount="273">
   <si>
     <t>Class Name</t>
   </si>
@@ -8011,7 +8011,7 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:C141"/>
+  <dimension ref="A1:C144"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -8099,10 +8099,10 @@
         <v>46</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>50</v>
+        <v>58</v>
       </c>
       <c r="C8" t="s" s="0">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="9">
@@ -8110,7 +8110,7 @@
         <v>46</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>58</v>
+        <v>23</v>
       </c>
       <c r="C9" t="s" s="0">
         <v>264</v>
@@ -8121,10 +8121,10 @@
         <v>46</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>23</v>
+        <v>57</v>
       </c>
       <c r="C10" t="s" s="0">
-        <v>264</v>
+        <v>265</v>
       </c>
     </row>
     <row r="11">
@@ -8132,7 +8132,7 @@
         <v>46</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="C11" t="s" s="0">
         <v>265</v>
@@ -8143,7 +8143,7 @@
         <v>46</v>
       </c>
       <c r="B12" t="s" s="0">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="C12" t="s" s="0">
         <v>265</v>
@@ -8151,13 +8151,13 @@
     </row>
     <row r="13">
       <c r="A13" t="s" s="0">
-        <v>46</v>
+        <v>65</v>
       </c>
       <c r="B13" t="s" s="0">
-        <v>55</v>
+        <v>68</v>
       </c>
       <c r="C13" t="s" s="0">
-        <v>265</v>
+        <v>242</v>
       </c>
     </row>
     <row r="14">
@@ -8165,10 +8165,10 @@
         <v>65</v>
       </c>
       <c r="B14" t="s" s="0">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C14" t="s" s="0">
-        <v>242</v>
+        <v>266</v>
       </c>
     </row>
     <row r="15">
@@ -8176,7 +8176,7 @@
         <v>65</v>
       </c>
       <c r="B15" t="s" s="0">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C15" t="s" s="0">
         <v>266</v>
@@ -8187,7 +8187,7 @@
         <v>65</v>
       </c>
       <c r="B16" t="s" s="0">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C16" t="s" s="0">
         <v>266</v>
@@ -8198,10 +8198,10 @@
         <v>65</v>
       </c>
       <c r="B17" t="s" s="0">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="C17" t="s" s="0">
-        <v>266</v>
+        <v>264</v>
       </c>
     </row>
     <row r="18">
@@ -8209,7 +8209,7 @@
         <v>65</v>
       </c>
       <c r="B18" t="s" s="0">
-        <v>66</v>
+        <v>23</v>
       </c>
       <c r="C18" t="s" s="0">
         <v>264</v>
@@ -8217,10 +8217,10 @@
     </row>
     <row r="19">
       <c r="A19" t="s" s="0">
-        <v>65</v>
+        <v>72</v>
       </c>
       <c r="B19" t="s" s="0">
-        <v>23</v>
+        <v>74</v>
       </c>
       <c r="C19" t="s" s="0">
         <v>264</v>
@@ -8231,21 +8231,21 @@
         <v>72</v>
       </c>
       <c r="B20" t="s" s="0">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C20" t="s" s="0">
-        <v>264</v>
+        <v>242</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="0">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="B21" t="s" s="0">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="C21" t="s" s="0">
-        <v>242</v>
+        <v>266</v>
       </c>
     </row>
     <row r="22">
@@ -8253,10 +8253,10 @@
         <v>75</v>
       </c>
       <c r="B22" t="s" s="0">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C22" t="s" s="0">
-        <v>242</v>
+        <v>266</v>
       </c>
     </row>
     <row r="23">
@@ -8264,7 +8264,7 @@
         <v>75</v>
       </c>
       <c r="B23" t="s" s="0">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="C23" t="s" s="0">
         <v>266</v>
@@ -8275,7 +8275,7 @@
         <v>75</v>
       </c>
       <c r="B24" t="s" s="0">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="C24" t="s" s="0">
         <v>266</v>
@@ -8286,7 +8286,7 @@
         <v>75</v>
       </c>
       <c r="B25" t="s" s="0">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C25" t="s" s="0">
         <v>266</v>
@@ -8297,10 +8297,10 @@
         <v>75</v>
       </c>
       <c r="B26" t="s" s="0">
-        <v>77</v>
+        <v>66</v>
       </c>
       <c r="C26" t="s" s="0">
-        <v>266</v>
+        <v>264</v>
       </c>
     </row>
     <row r="27">
@@ -8308,18 +8308,18 @@
         <v>75</v>
       </c>
       <c r="B27" t="s" s="0">
-        <v>82</v>
+        <v>23</v>
       </c>
       <c r="C27" t="s" s="0">
-        <v>266</v>
+        <v>264</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="0">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="B28" t="s" s="0">
-        <v>66</v>
+        <v>93</v>
       </c>
       <c r="C28" t="s" s="0">
         <v>264</v>
@@ -8327,10 +8327,10 @@
     </row>
     <row r="29">
       <c r="A29" t="s" s="0">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="B29" t="s" s="0">
-        <v>23</v>
+        <v>88</v>
       </c>
       <c r="C29" t="s" s="0">
         <v>264</v>
@@ -8341,7 +8341,7 @@
         <v>83</v>
       </c>
       <c r="B30" t="s" s="0">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="C30" t="s" s="0">
         <v>264</v>
@@ -8352,7 +8352,7 @@
         <v>83</v>
       </c>
       <c r="B31" t="s" s="0">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="C31" t="s" s="0">
         <v>264</v>
@@ -8363,7 +8363,7 @@
         <v>83</v>
       </c>
       <c r="B32" t="s" s="0">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="C32" t="s" s="0">
         <v>264</v>
@@ -8374,7 +8374,7 @@
         <v>83</v>
       </c>
       <c r="B33" t="s" s="0">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="C33" t="s" s="0">
         <v>264</v>
@@ -8385,7 +8385,7 @@
         <v>83</v>
       </c>
       <c r="B34" t="s" s="0">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C34" t="s" s="0">
         <v>264</v>
@@ -8396,10 +8396,10 @@
         <v>83</v>
       </c>
       <c r="B35" t="s" s="0">
-        <v>91</v>
+        <v>5</v>
       </c>
       <c r="C35" t="s" s="0">
-        <v>264</v>
+        <v>267</v>
       </c>
     </row>
     <row r="36">
@@ -8407,7 +8407,7 @@
         <v>83</v>
       </c>
       <c r="B36" t="s" s="0">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="C36" t="s" s="0">
         <v>264</v>
@@ -8418,10 +8418,10 @@
         <v>83</v>
       </c>
       <c r="B37" t="s" s="0">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="C37" t="s" s="0">
-        <v>267</v>
+        <v>268</v>
       </c>
     </row>
     <row r="38">
@@ -8429,7 +8429,7 @@
         <v>83</v>
       </c>
       <c r="B38" t="s" s="0">
-        <v>95</v>
+        <v>23</v>
       </c>
       <c r="C38" t="s" s="0">
         <v>264</v>
@@ -8440,10 +8440,10 @@
         <v>83</v>
       </c>
       <c r="B39" t="s" s="0">
-        <v>15</v>
+        <v>84</v>
       </c>
       <c r="C39" t="s" s="0">
-        <v>268</v>
+        <v>269</v>
       </c>
     </row>
     <row r="40">
@@ -8451,29 +8451,29 @@
         <v>83</v>
       </c>
       <c r="B40" t="s" s="0">
-        <v>23</v>
+        <v>92</v>
       </c>
       <c r="C40" t="s" s="0">
-        <v>264</v>
+        <v>242</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s" s="0">
-        <v>83</v>
+        <v>96</v>
       </c>
       <c r="B41" t="s" s="0">
-        <v>84</v>
+        <v>97</v>
       </c>
       <c r="C41" t="s" s="0">
-        <v>269</v>
+        <v>264</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s" s="0">
-        <v>83</v>
+        <v>96</v>
       </c>
       <c r="B42" t="s" s="0">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="C42" t="s" s="0">
         <v>242</v>
@@ -8481,24 +8481,24 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="0">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="B43" t="s" s="0">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="C43" t="s" s="0">
-        <v>264</v>
+        <v>242</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s" s="0">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="B44" t="s" s="0">
-        <v>98</v>
+        <v>80</v>
       </c>
       <c r="C44" t="s" s="0">
-        <v>242</v>
+        <v>266</v>
       </c>
     </row>
     <row r="45">
@@ -8506,10 +8506,10 @@
         <v>99</v>
       </c>
       <c r="B45" t="s" s="0">
-        <v>100</v>
+        <v>81</v>
       </c>
       <c r="C45" t="s" s="0">
-        <v>242</v>
+        <v>266</v>
       </c>
     </row>
     <row r="46">
@@ -8517,10 +8517,10 @@
         <v>99</v>
       </c>
       <c r="B46" t="s" s="0">
-        <v>80</v>
+        <v>66</v>
       </c>
       <c r="C46" t="s" s="0">
-        <v>266</v>
+        <v>264</v>
       </c>
     </row>
     <row r="47">
@@ -8528,32 +8528,32 @@
         <v>99</v>
       </c>
       <c r="B47" t="s" s="0">
-        <v>81</v>
+        <v>23</v>
       </c>
       <c r="C47" t="s" s="0">
-        <v>266</v>
+        <v>264</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s" s="0">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="B48" t="s" s="0">
-        <v>66</v>
+        <v>115</v>
       </c>
       <c r="C48" t="s" s="0">
-        <v>264</v>
+        <v>242</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s" s="0">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="B49" t="s" s="0">
-        <v>23</v>
+        <v>110</v>
       </c>
       <c r="C49" t="s" s="0">
-        <v>264</v>
+        <v>266</v>
       </c>
     </row>
     <row r="50">
@@ -8561,10 +8561,10 @@
         <v>102</v>
       </c>
       <c r="B50" t="s" s="0">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="C50" t="s" s="0">
-        <v>242</v>
+        <v>266</v>
       </c>
     </row>
     <row r="51">
@@ -8572,7 +8572,7 @@
         <v>102</v>
       </c>
       <c r="B51" t="s" s="0">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="C51" t="s" s="0">
         <v>266</v>
@@ -8583,7 +8583,7 @@
         <v>102</v>
       </c>
       <c r="B52" t="s" s="0">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="C52" t="s" s="0">
         <v>266</v>
@@ -8594,7 +8594,7 @@
         <v>102</v>
       </c>
       <c r="B53" t="s" s="0">
-        <v>105</v>
+        <v>114</v>
       </c>
       <c r="C53" t="s" s="0">
         <v>266</v>
@@ -8605,7 +8605,7 @@
         <v>102</v>
       </c>
       <c r="B54" t="s" s="0">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="C54" t="s" s="0">
         <v>266</v>
@@ -8616,7 +8616,7 @@
         <v>102</v>
       </c>
       <c r="B55" t="s" s="0">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="C55" t="s" s="0">
         <v>266</v>
@@ -8627,7 +8627,7 @@
         <v>102</v>
       </c>
       <c r="B56" t="s" s="0">
-        <v>104</v>
+        <v>113</v>
       </c>
       <c r="C56" t="s" s="0">
         <v>266</v>
@@ -8638,7 +8638,7 @@
         <v>102</v>
       </c>
       <c r="B57" t="s" s="0">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="C57" t="s" s="0">
         <v>266</v>
@@ -8649,7 +8649,7 @@
         <v>102</v>
       </c>
       <c r="B58" t="s" s="0">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="C58" t="s" s="0">
         <v>266</v>
@@ -8660,7 +8660,7 @@
         <v>102</v>
       </c>
       <c r="B59" t="s" s="0">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="C59" t="s" s="0">
         <v>266</v>
@@ -8671,10 +8671,10 @@
         <v>102</v>
       </c>
       <c r="B60" t="s" s="0">
-        <v>106</v>
+        <v>66</v>
       </c>
       <c r="C60" t="s" s="0">
-        <v>266</v>
+        <v>264</v>
       </c>
     </row>
     <row r="61">
@@ -8682,32 +8682,32 @@
         <v>102</v>
       </c>
       <c r="B61" t="s" s="0">
-        <v>103</v>
+        <v>23</v>
       </c>
       <c r="C61" t="s" s="0">
-        <v>266</v>
+        <v>264</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s" s="0">
-        <v>102</v>
+        <v>94</v>
       </c>
       <c r="B62" t="s" s="0">
-        <v>66</v>
+        <v>118</v>
       </c>
       <c r="C62" t="s" s="0">
-        <v>264</v>
+        <v>242</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="s" s="0">
-        <v>102</v>
+        <v>94</v>
       </c>
       <c r="B63" t="s" s="0">
-        <v>23</v>
+        <v>116</v>
       </c>
       <c r="C63" t="s" s="0">
-        <v>264</v>
+        <v>266</v>
       </c>
     </row>
     <row r="64">
@@ -8715,10 +8715,10 @@
         <v>94</v>
       </c>
       <c r="B64" t="s" s="0">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C64" t="s" s="0">
-        <v>242</v>
+        <v>266</v>
       </c>
     </row>
     <row r="65">
@@ -8726,7 +8726,7 @@
         <v>94</v>
       </c>
       <c r="B65" t="s" s="0">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C65" t="s" s="0">
         <v>266</v>
@@ -8737,10 +8737,10 @@
         <v>94</v>
       </c>
       <c r="B66" t="s" s="0">
-        <v>119</v>
+        <v>66</v>
       </c>
       <c r="C66" t="s" s="0">
-        <v>266</v>
+        <v>264</v>
       </c>
     </row>
     <row r="67">
@@ -8748,18 +8748,18 @@
         <v>94</v>
       </c>
       <c r="B67" t="s" s="0">
-        <v>117</v>
+        <v>23</v>
       </c>
       <c r="C67" t="s" s="0">
-        <v>266</v>
+        <v>264</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="s" s="0">
-        <v>94</v>
+        <v>120</v>
       </c>
       <c r="B68" t="s" s="0">
-        <v>66</v>
+        <v>122</v>
       </c>
       <c r="C68" t="s" s="0">
         <v>264</v>
@@ -8767,13 +8767,13 @@
     </row>
     <row r="69">
       <c r="A69" t="s" s="0">
-        <v>94</v>
+        <v>120</v>
       </c>
       <c r="B69" t="s" s="0">
-        <v>23</v>
+        <v>121</v>
       </c>
       <c r="C69" t="s" s="0">
-        <v>264</v>
+        <v>242</v>
       </c>
     </row>
     <row r="70">
@@ -9009,10 +9009,10 @@
     </row>
     <row r="91">
       <c r="A91" t="s" s="0">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="B91" t="s" s="0">
-        <v>142</v>
+        <v>93</v>
       </c>
       <c r="C91" t="s" s="0">
         <v>264</v>
@@ -9020,13 +9020,13 @@
     </row>
     <row r="92">
       <c r="A92" t="s" s="0">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="B92" t="s" s="0">
-        <v>141</v>
+        <v>150</v>
       </c>
       <c r="C92" t="s" s="0">
-        <v>242</v>
+        <v>264</v>
       </c>
     </row>
     <row r="93">
@@ -9034,7 +9034,7 @@
         <v>132</v>
       </c>
       <c r="B93" t="s" s="0">
-        <v>93</v>
+        <v>145</v>
       </c>
       <c r="C93" t="s" s="0">
         <v>264</v>
@@ -9045,7 +9045,7 @@
         <v>132</v>
       </c>
       <c r="B94" t="s" s="0">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="C94" t="s" s="0">
         <v>264</v>
@@ -9056,7 +9056,7 @@
         <v>132</v>
       </c>
       <c r="B95" t="s" s="0">
-        <v>145</v>
+        <v>154</v>
       </c>
       <c r="C95" t="s" s="0">
         <v>264</v>
@@ -9067,7 +9067,7 @@
         <v>132</v>
       </c>
       <c r="B96" t="s" s="0">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="C96" t="s" s="0">
         <v>264</v>
@@ -9078,7 +9078,7 @@
         <v>132</v>
       </c>
       <c r="B97" t="s" s="0">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="C97" t="s" s="0">
         <v>264</v>
@@ -9089,7 +9089,7 @@
         <v>132</v>
       </c>
       <c r="B98" t="s" s="0">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="C98" t="s" s="0">
         <v>264</v>
@@ -9100,7 +9100,7 @@
         <v>132</v>
       </c>
       <c r="B99" t="s" s="0">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="C99" t="s" s="0">
         <v>264</v>
@@ -9111,10 +9111,10 @@
         <v>132</v>
       </c>
       <c r="B100" t="s" s="0">
-        <v>144</v>
+        <v>153</v>
       </c>
       <c r="C100" t="s" s="0">
-        <v>264</v>
+        <v>257</v>
       </c>
     </row>
     <row r="101">
@@ -9122,32 +9122,32 @@
         <v>132</v>
       </c>
       <c r="B101" t="s" s="0">
-        <v>151</v>
+        <v>143</v>
       </c>
       <c r="C101" t="s" s="0">
-        <v>264</v>
+        <v>242</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="s" s="0">
-        <v>132</v>
+        <v>101</v>
       </c>
       <c r="B102" t="s" s="0">
-        <v>153</v>
+        <v>93</v>
       </c>
       <c r="C102" t="s" s="0">
-        <v>257</v>
+        <v>264</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="s" s="0">
-        <v>132</v>
+        <v>101</v>
       </c>
       <c r="B103" t="s" s="0">
-        <v>143</v>
+        <v>156</v>
       </c>
       <c r="C103" t="s" s="0">
-        <v>242</v>
+        <v>264</v>
       </c>
     </row>
     <row r="104">
@@ -9155,7 +9155,7 @@
         <v>101</v>
       </c>
       <c r="B104" t="s" s="0">
-        <v>93</v>
+        <v>158</v>
       </c>
       <c r="C104" t="s" s="0">
         <v>264</v>
@@ -9166,10 +9166,10 @@
         <v>101</v>
       </c>
       <c r="B105" t="s" s="0">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="C105" t="s" s="0">
-        <v>264</v>
+        <v>266</v>
       </c>
     </row>
     <row r="106">
@@ -9177,10 +9177,10 @@
         <v>101</v>
       </c>
       <c r="B106" t="s" s="0">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="C106" t="s" s="0">
-        <v>264</v>
+        <v>242</v>
       </c>
     </row>
     <row r="107">
@@ -9408,10 +9408,10 @@
         <v>78</v>
       </c>
       <c r="B127" t="s" s="0">
-        <v>93</v>
+        <v>182</v>
       </c>
       <c r="C127" t="s" s="0">
-        <v>264</v>
+        <v>250</v>
       </c>
     </row>
     <row r="128">
@@ -9419,7 +9419,7 @@
         <v>78</v>
       </c>
       <c r="B128" t="s" s="0">
-        <v>185</v>
+        <v>93</v>
       </c>
       <c r="C128" t="s" s="0">
         <v>264</v>
@@ -9430,7 +9430,7 @@
         <v>78</v>
       </c>
       <c r="B129" t="s" s="0">
-        <v>156</v>
+        <v>185</v>
       </c>
       <c r="C129" t="s" s="0">
         <v>264</v>
@@ -9441,7 +9441,7 @@
         <v>78</v>
       </c>
       <c r="B130" t="s" s="0">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C130" t="s" s="0">
         <v>264</v>
@@ -9452,7 +9452,7 @@
         <v>78</v>
       </c>
       <c r="B131" t="s" s="0">
-        <v>184</v>
+        <v>158</v>
       </c>
       <c r="C131" t="s" s="0">
         <v>264</v>
@@ -9463,7 +9463,7 @@
         <v>78</v>
       </c>
       <c r="B132" t="s" s="0">
-        <v>177</v>
+        <v>184</v>
       </c>
       <c r="C132" t="s" s="0">
         <v>264</v>
@@ -9474,7 +9474,7 @@
         <v>78</v>
       </c>
       <c r="B133" t="s" s="0">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="C133" t="s" s="0">
         <v>264</v>
@@ -9485,7 +9485,7 @@
         <v>78</v>
       </c>
       <c r="B134" t="s" s="0">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="C134" t="s" s="0">
         <v>264</v>
@@ -9496,7 +9496,7 @@
         <v>78</v>
       </c>
       <c r="B135" t="s" s="0">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C135" t="s" s="0">
         <v>264</v>
@@ -9507,7 +9507,7 @@
         <v>78</v>
       </c>
       <c r="B136" t="s" s="0">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="C136" t="s" s="0">
         <v>264</v>
@@ -9518,7 +9518,7 @@
         <v>78</v>
       </c>
       <c r="B137" t="s" s="0">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C137" t="s" s="0">
         <v>264</v>
@@ -9529,10 +9529,10 @@
         <v>78</v>
       </c>
       <c r="B138" t="s" s="0">
-        <v>5</v>
+        <v>179</v>
       </c>
       <c r="C138" t="s" s="0">
-        <v>271</v>
+        <v>264</v>
       </c>
     </row>
     <row r="139">
@@ -9540,10 +9540,10 @@
         <v>78</v>
       </c>
       <c r="B139" t="s" s="0">
-        <v>95</v>
+        <v>5</v>
       </c>
       <c r="C139" t="s" s="0">
-        <v>264</v>
+        <v>271</v>
       </c>
     </row>
     <row r="140">
@@ -9551,10 +9551,10 @@
         <v>78</v>
       </c>
       <c r="B140" t="s" s="0">
-        <v>15</v>
+        <v>95</v>
       </c>
       <c r="C140" t="s" s="0">
-        <v>272</v>
+        <v>264</v>
       </c>
     </row>
     <row r="141">
@@ -9562,10 +9562,43 @@
         <v>78</v>
       </c>
       <c r="B141" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="C141" t="s" s="0">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="s" s="0">
+        <v>78</v>
+      </c>
+      <c r="B142" t="s" s="0">
         <v>23</v>
       </c>
-      <c r="C141" t="s" s="0">
+      <c r="C142" t="s" s="0">
         <v>264</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="s" s="0">
+        <v>186</v>
+      </c>
+      <c r="B143" t="s" s="0">
+        <v>188</v>
+      </c>
+      <c r="C143" t="s" s="0">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="s" s="0">
+        <v>186</v>
+      </c>
+      <c r="B144" t="s" s="0">
+        <v>187</v>
+      </c>
+      <c r="C144" t="s" s="0">
+        <v>242</v>
       </c>
     </row>
   </sheetData>

--- a/data/Andante/activity-client_structure.xlsx
+++ b/data/Andante/activity-client_structure.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3034" uniqueCount="273">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3046" uniqueCount="273">
   <si>
     <t>Class Name</t>
   </si>
@@ -621,115 +621,115 @@
     <t>HIGHEST</t>
   </si>
   <si>
+    <t>HIGH</t>
+  </si>
+  <si>
     <t>MEDIUM</t>
   </si>
   <si>
+    <t>LOWEST</t>
+  </si>
+  <si>
+    <t>LOW</t>
+  </si>
+  <si>
     <t>$VALUES</t>
   </si>
   <si>
-    <t>LOW</t>
-  </si>
-  <si>
-    <t>HIGH</t>
-  </si>
-  <si>
-    <t>LOWEST</t>
+    <t>subscriptionDate</t>
   </si>
   <si>
     <t>emailAddress</t>
   </si>
   <si>
-    <t>subscriptionDate</t>
-  </si>
-  <si>
     <t>isConfirmed</t>
   </si>
   <si>
     <t>imageUrl</t>
   </si>
   <si>
+    <t>observingUsers</t>
+  </si>
+  <si>
+    <t>username</t>
+  </si>
+  <si>
+    <t>key</t>
+  </si>
+  <si>
     <t>observedUsers</t>
   </si>
   <si>
-    <t>key</t>
-  </si>
-  <si>
-    <t>username</t>
-  </si>
-  <si>
-    <t>observingUsers</t>
+    <t>pageSize</t>
+  </si>
+  <si>
+    <t>query</t>
   </si>
   <si>
     <t>pageNumber</t>
   </si>
   <si>
-    <t>pageSize</t>
-  </si>
-  <si>
-    <t>query</t>
+    <t>postalCode</t>
+  </si>
+  <si>
+    <t>city</t>
+  </si>
+  <si>
+    <t>profileImageUrl</t>
+  </si>
+  <si>
+    <t>lastName</t>
+  </si>
+  <si>
+    <t>street</t>
+  </si>
+  <si>
+    <t>country</t>
   </si>
   <si>
     <t>description</t>
   </si>
   <si>
+    <t>dateOfBirth</t>
+  </si>
+  <si>
+    <t>gender</t>
+  </si>
+  <si>
     <t>firstName</t>
   </si>
   <si>
-    <t>dateOfBirth</t>
-  </si>
-  <si>
-    <t>country</t>
-  </si>
-  <si>
     <t>phoneNumber</t>
   </si>
   <si>
-    <t>city</t>
-  </si>
-  <si>
-    <t>street</t>
-  </si>
-  <si>
-    <t>gender</t>
-  </si>
-  <si>
-    <t>lastName</t>
-  </si>
-  <si>
-    <t>postalCode</t>
-  </si>
-  <si>
-    <t>profileImageUrl</t>
-  </si>
-  <si>
     <t>FORUM</t>
   </si>
   <si>
+    <t>PRODUCT</t>
+  </si>
+  <si>
     <t>ORDER</t>
   </si>
   <si>
-    <t>PRODUCT</t>
+    <t>domain</t>
+  </si>
+  <si>
+    <t>affectedUsers</t>
+  </si>
+  <si>
+    <t>acknowledgedUsers</t>
+  </si>
+  <si>
+    <t>priority</t>
+  </si>
+  <si>
+    <t>eventTimestamp</t>
   </si>
   <si>
     <t>id</t>
   </si>
   <si>
-    <t>acknowledgedUsers</t>
-  </si>
-  <si>
-    <t>priority</t>
-  </si>
-  <si>
-    <t>eventTimestamp</t>
-  </si>
-  <si>
     <t>relatedId</t>
-  </si>
-  <si>
-    <t>domain</t>
-  </si>
-  <si>
-    <t>affectedUsers</t>
   </si>
   <si>
     <t>Source Class Name</t>
@@ -8011,7 +8011,7 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:C144"/>
+  <dimension ref="A1:C148"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -8099,10 +8099,10 @@
         <v>46</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="C8" t="s" s="0">
-        <v>264</v>
+        <v>265</v>
       </c>
     </row>
     <row r="9">
@@ -8110,7 +8110,7 @@
         <v>46</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>23</v>
+        <v>58</v>
       </c>
       <c r="C9" t="s" s="0">
         <v>264</v>
@@ -8121,10 +8121,10 @@
         <v>46</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>57</v>
+        <v>23</v>
       </c>
       <c r="C10" t="s" s="0">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="11">
@@ -8132,7 +8132,7 @@
         <v>46</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>48</v>
+        <v>57</v>
       </c>
       <c r="C11" t="s" s="0">
         <v>265</v>
@@ -8143,7 +8143,7 @@
         <v>46</v>
       </c>
       <c r="B12" t="s" s="0">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="C12" t="s" s="0">
         <v>265</v>
@@ -8151,13 +8151,13 @@
     </row>
     <row r="13">
       <c r="A13" t="s" s="0">
-        <v>65</v>
+        <v>46</v>
       </c>
       <c r="B13" t="s" s="0">
-        <v>68</v>
+        <v>55</v>
       </c>
       <c r="C13" t="s" s="0">
-        <v>242</v>
+        <v>265</v>
       </c>
     </row>
     <row r="14">
@@ -8165,10 +8165,10 @@
         <v>65</v>
       </c>
       <c r="B14" t="s" s="0">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C14" t="s" s="0">
-        <v>266</v>
+        <v>242</v>
       </c>
     </row>
     <row r="15">
@@ -8176,7 +8176,7 @@
         <v>65</v>
       </c>
       <c r="B15" t="s" s="0">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C15" t="s" s="0">
         <v>266</v>
@@ -8187,7 +8187,7 @@
         <v>65</v>
       </c>
       <c r="B16" t="s" s="0">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="C16" t="s" s="0">
         <v>266</v>
@@ -8198,10 +8198,10 @@
         <v>65</v>
       </c>
       <c r="B17" t="s" s="0">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="C17" t="s" s="0">
-        <v>264</v>
+        <v>266</v>
       </c>
     </row>
     <row r="18">
@@ -8209,7 +8209,7 @@
         <v>65</v>
       </c>
       <c r="B18" t="s" s="0">
-        <v>23</v>
+        <v>66</v>
       </c>
       <c r="C18" t="s" s="0">
         <v>264</v>
@@ -8217,10 +8217,10 @@
     </row>
     <row r="19">
       <c r="A19" t="s" s="0">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="B19" t="s" s="0">
-        <v>74</v>
+        <v>23</v>
       </c>
       <c r="C19" t="s" s="0">
         <v>264</v>
@@ -8231,21 +8231,21 @@
         <v>72</v>
       </c>
       <c r="B20" t="s" s="0">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C20" t="s" s="0">
-        <v>242</v>
+        <v>264</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="0">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="B21" t="s" s="0">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="C21" t="s" s="0">
-        <v>266</v>
+        <v>242</v>
       </c>
     </row>
     <row r="22">
@@ -8253,10 +8253,10 @@
         <v>75</v>
       </c>
       <c r="B22" t="s" s="0">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C22" t="s" s="0">
-        <v>266</v>
+        <v>242</v>
       </c>
     </row>
     <row r="23">
@@ -8264,7 +8264,7 @@
         <v>75</v>
       </c>
       <c r="B23" t="s" s="0">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="C23" t="s" s="0">
         <v>266</v>
@@ -8275,7 +8275,7 @@
         <v>75</v>
       </c>
       <c r="B24" t="s" s="0">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="C24" t="s" s="0">
         <v>266</v>
@@ -8286,7 +8286,7 @@
         <v>75</v>
       </c>
       <c r="B25" t="s" s="0">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C25" t="s" s="0">
         <v>266</v>
@@ -8297,10 +8297,10 @@
         <v>75</v>
       </c>
       <c r="B26" t="s" s="0">
-        <v>66</v>
+        <v>77</v>
       </c>
       <c r="C26" t="s" s="0">
-        <v>264</v>
+        <v>266</v>
       </c>
     </row>
     <row r="27">
@@ -8308,18 +8308,18 @@
         <v>75</v>
       </c>
       <c r="B27" t="s" s="0">
-        <v>23</v>
+        <v>82</v>
       </c>
       <c r="C27" t="s" s="0">
-        <v>264</v>
+        <v>266</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="0">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="B28" t="s" s="0">
-        <v>93</v>
+        <v>66</v>
       </c>
       <c r="C28" t="s" s="0">
         <v>264</v>
@@ -8327,10 +8327,10 @@
     </row>
     <row r="29">
       <c r="A29" t="s" s="0">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="B29" t="s" s="0">
-        <v>88</v>
+        <v>23</v>
       </c>
       <c r="C29" t="s" s="0">
         <v>264</v>
@@ -8341,7 +8341,7 @@
         <v>83</v>
       </c>
       <c r="B30" t="s" s="0">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="C30" t="s" s="0">
         <v>264</v>
@@ -8352,7 +8352,7 @@
         <v>83</v>
       </c>
       <c r="B31" t="s" s="0">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="C31" t="s" s="0">
         <v>264</v>
@@ -8363,7 +8363,7 @@
         <v>83</v>
       </c>
       <c r="B32" t="s" s="0">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C32" t="s" s="0">
         <v>264</v>
@@ -8374,7 +8374,7 @@
         <v>83</v>
       </c>
       <c r="B33" t="s" s="0">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="C33" t="s" s="0">
         <v>264</v>
@@ -8385,7 +8385,7 @@
         <v>83</v>
       </c>
       <c r="B34" t="s" s="0">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C34" t="s" s="0">
         <v>264</v>
@@ -8396,10 +8396,10 @@
         <v>83</v>
       </c>
       <c r="B35" t="s" s="0">
-        <v>5</v>
+        <v>91</v>
       </c>
       <c r="C35" t="s" s="0">
-        <v>267</v>
+        <v>264</v>
       </c>
     </row>
     <row r="36">
@@ -8407,7 +8407,7 @@
         <v>83</v>
       </c>
       <c r="B36" t="s" s="0">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="C36" t="s" s="0">
         <v>264</v>
@@ -8418,10 +8418,10 @@
         <v>83</v>
       </c>
       <c r="B37" t="s" s="0">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="C37" t="s" s="0">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="38">
@@ -8429,7 +8429,7 @@
         <v>83</v>
       </c>
       <c r="B38" t="s" s="0">
-        <v>23</v>
+        <v>95</v>
       </c>
       <c r="C38" t="s" s="0">
         <v>264</v>
@@ -8440,10 +8440,10 @@
         <v>83</v>
       </c>
       <c r="B39" t="s" s="0">
-        <v>84</v>
+        <v>15</v>
       </c>
       <c r="C39" t="s" s="0">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="40">
@@ -8451,29 +8451,29 @@
         <v>83</v>
       </c>
       <c r="B40" t="s" s="0">
-        <v>92</v>
+        <v>23</v>
       </c>
       <c r="C40" t="s" s="0">
-        <v>242</v>
+        <v>264</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s" s="0">
-        <v>96</v>
+        <v>83</v>
       </c>
       <c r="B41" t="s" s="0">
-        <v>97</v>
+        <v>84</v>
       </c>
       <c r="C41" t="s" s="0">
-        <v>264</v>
+        <v>269</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s" s="0">
-        <v>96</v>
+        <v>83</v>
       </c>
       <c r="B42" t="s" s="0">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="C42" t="s" s="0">
         <v>242</v>
@@ -8481,24 +8481,24 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="0">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="B43" t="s" s="0">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="C43" t="s" s="0">
-        <v>242</v>
+        <v>264</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s" s="0">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="B44" t="s" s="0">
-        <v>80</v>
+        <v>98</v>
       </c>
       <c r="C44" t="s" s="0">
-        <v>266</v>
+        <v>242</v>
       </c>
     </row>
     <row r="45">
@@ -8506,10 +8506,10 @@
         <v>99</v>
       </c>
       <c r="B45" t="s" s="0">
-        <v>81</v>
+        <v>100</v>
       </c>
       <c r="C45" t="s" s="0">
-        <v>266</v>
+        <v>242</v>
       </c>
     </row>
     <row r="46">
@@ -8517,10 +8517,10 @@
         <v>99</v>
       </c>
       <c r="B46" t="s" s="0">
-        <v>66</v>
+        <v>80</v>
       </c>
       <c r="C46" t="s" s="0">
-        <v>264</v>
+        <v>266</v>
       </c>
     </row>
     <row r="47">
@@ -8528,32 +8528,32 @@
         <v>99</v>
       </c>
       <c r="B47" t="s" s="0">
-        <v>23</v>
+        <v>81</v>
       </c>
       <c r="C47" t="s" s="0">
-        <v>264</v>
+        <v>266</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s" s="0">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="B48" t="s" s="0">
-        <v>115</v>
+        <v>66</v>
       </c>
       <c r="C48" t="s" s="0">
-        <v>242</v>
+        <v>264</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s" s="0">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="B49" t="s" s="0">
-        <v>110</v>
+        <v>23</v>
       </c>
       <c r="C49" t="s" s="0">
-        <v>266</v>
+        <v>264</v>
       </c>
     </row>
     <row r="50">
@@ -8561,10 +8561,10 @@
         <v>102</v>
       </c>
       <c r="B50" t="s" s="0">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="C50" t="s" s="0">
-        <v>266</v>
+        <v>242</v>
       </c>
     </row>
     <row r="51">
@@ -8572,7 +8572,7 @@
         <v>102</v>
       </c>
       <c r="B51" t="s" s="0">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="C51" t="s" s="0">
         <v>266</v>
@@ -8583,7 +8583,7 @@
         <v>102</v>
       </c>
       <c r="B52" t="s" s="0">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="C52" t="s" s="0">
         <v>266</v>
@@ -8594,7 +8594,7 @@
         <v>102</v>
       </c>
       <c r="B53" t="s" s="0">
-        <v>114</v>
+        <v>105</v>
       </c>
       <c r="C53" t="s" s="0">
         <v>266</v>
@@ -8605,7 +8605,7 @@
         <v>102</v>
       </c>
       <c r="B54" t="s" s="0">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="C54" t="s" s="0">
         <v>266</v>
@@ -8616,7 +8616,7 @@
         <v>102</v>
       </c>
       <c r="B55" t="s" s="0">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="C55" t="s" s="0">
         <v>266</v>
@@ -8627,7 +8627,7 @@
         <v>102</v>
       </c>
       <c r="B56" t="s" s="0">
-        <v>113</v>
+        <v>104</v>
       </c>
       <c r="C56" t="s" s="0">
         <v>266</v>
@@ -8638,7 +8638,7 @@
         <v>102</v>
       </c>
       <c r="B57" t="s" s="0">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="C57" t="s" s="0">
         <v>266</v>
@@ -8649,7 +8649,7 @@
         <v>102</v>
       </c>
       <c r="B58" t="s" s="0">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="C58" t="s" s="0">
         <v>266</v>
@@ -8660,7 +8660,7 @@
         <v>102</v>
       </c>
       <c r="B59" t="s" s="0">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="C59" t="s" s="0">
         <v>266</v>
@@ -8671,10 +8671,10 @@
         <v>102</v>
       </c>
       <c r="B60" t="s" s="0">
-        <v>66</v>
+        <v>106</v>
       </c>
       <c r="C60" t="s" s="0">
-        <v>264</v>
+        <v>266</v>
       </c>
     </row>
     <row r="61">
@@ -8682,32 +8682,32 @@
         <v>102</v>
       </c>
       <c r="B61" t="s" s="0">
-        <v>23</v>
+        <v>103</v>
       </c>
       <c r="C61" t="s" s="0">
-        <v>264</v>
+        <v>266</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s" s="0">
-        <v>94</v>
+        <v>102</v>
       </c>
       <c r="B62" t="s" s="0">
-        <v>118</v>
+        <v>66</v>
       </c>
       <c r="C62" t="s" s="0">
-        <v>242</v>
+        <v>264</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="s" s="0">
-        <v>94</v>
+        <v>102</v>
       </c>
       <c r="B63" t="s" s="0">
-        <v>116</v>
+        <v>23</v>
       </c>
       <c r="C63" t="s" s="0">
-        <v>266</v>
+        <v>264</v>
       </c>
     </row>
     <row r="64">
@@ -8715,10 +8715,10 @@
         <v>94</v>
       </c>
       <c r="B64" t="s" s="0">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C64" t="s" s="0">
-        <v>266</v>
+        <v>242</v>
       </c>
     </row>
     <row r="65">
@@ -8726,7 +8726,7 @@
         <v>94</v>
       </c>
       <c r="B65" t="s" s="0">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C65" t="s" s="0">
         <v>266</v>
@@ -8737,10 +8737,10 @@
         <v>94</v>
       </c>
       <c r="B66" t="s" s="0">
-        <v>66</v>
+        <v>119</v>
       </c>
       <c r="C66" t="s" s="0">
-        <v>264</v>
+        <v>266</v>
       </c>
     </row>
     <row r="67">
@@ -8748,18 +8748,18 @@
         <v>94</v>
       </c>
       <c r="B67" t="s" s="0">
-        <v>23</v>
+        <v>117</v>
       </c>
       <c r="C67" t="s" s="0">
-        <v>264</v>
+        <v>266</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="s" s="0">
-        <v>120</v>
+        <v>94</v>
       </c>
       <c r="B68" t="s" s="0">
-        <v>122</v>
+        <v>66</v>
       </c>
       <c r="C68" t="s" s="0">
         <v>264</v>
@@ -8767,35 +8767,35 @@
     </row>
     <row r="69">
       <c r="A69" t="s" s="0">
-        <v>120</v>
+        <v>94</v>
       </c>
       <c r="B69" t="s" s="0">
-        <v>121</v>
+        <v>23</v>
       </c>
       <c r="C69" t="s" s="0">
-        <v>242</v>
+        <v>264</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="s" s="0">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="B70" t="s" s="0">
-        <v>53</v>
+        <v>122</v>
       </c>
       <c r="C70" t="s" s="0">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="s" s="0">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="B71" t="s" s="0">
-        <v>47</v>
+        <v>121</v>
       </c>
       <c r="C71" t="s" s="0">
-        <v>265</v>
+        <v>242</v>
       </c>
     </row>
     <row r="72">
@@ -8803,7 +8803,7 @@
         <v>123</v>
       </c>
       <c r="B72" t="s" s="0">
-        <v>124</v>
+        <v>53</v>
       </c>
       <c r="C72" t="s" s="0">
         <v>265</v>
@@ -8814,10 +8814,10 @@
         <v>123</v>
       </c>
       <c r="B73" t="s" s="0">
-        <v>58</v>
+        <v>47</v>
       </c>
       <c r="C73" t="s" s="0">
-        <v>264</v>
+        <v>265</v>
       </c>
     </row>
     <row r="74">
@@ -8825,10 +8825,10 @@
         <v>123</v>
       </c>
       <c r="B74" t="s" s="0">
-        <v>23</v>
+        <v>124</v>
       </c>
       <c r="C74" t="s" s="0">
-        <v>264</v>
+        <v>265</v>
       </c>
     </row>
     <row r="75">
@@ -8836,10 +8836,10 @@
         <v>123</v>
       </c>
       <c r="B75" t="s" s="0">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C75" t="s" s="0">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="76">
@@ -8847,10 +8847,10 @@
         <v>123</v>
       </c>
       <c r="B76" t="s" s="0">
-        <v>125</v>
+        <v>23</v>
       </c>
       <c r="C76" t="s" s="0">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="77">
@@ -8858,7 +8858,7 @@
         <v>123</v>
       </c>
       <c r="B77" t="s" s="0">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C77" t="s" s="0">
         <v>265</v>
@@ -8866,46 +8866,46 @@
     </row>
     <row r="78">
       <c r="A78" t="s" s="0">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="B78" t="s" s="0">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="C78" t="s" s="0">
-        <v>264</v>
+        <v>265</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="s" s="0">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="B79" t="s" s="0">
-        <v>129</v>
+        <v>55</v>
       </c>
       <c r="C79" t="s" s="0">
-        <v>242</v>
+        <v>265</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="s" s="0">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="B80" t="s" s="0">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="C80" t="s" s="0">
-        <v>242</v>
+        <v>264</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="s" s="0">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="B81" t="s" s="0">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="C81" t="s" s="0">
-        <v>266</v>
+        <v>242</v>
       </c>
     </row>
     <row r="82">
@@ -8913,10 +8913,10 @@
         <v>130</v>
       </c>
       <c r="B82" t="s" s="0">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="C82" t="s" s="0">
-        <v>266</v>
+        <v>242</v>
       </c>
     </row>
     <row r="83">
@@ -8924,7 +8924,7 @@
         <v>130</v>
       </c>
       <c r="B83" t="s" s="0">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="C83" t="s" s="0">
         <v>266</v>
@@ -8935,7 +8935,7 @@
         <v>130</v>
       </c>
       <c r="B84" t="s" s="0">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="C84" t="s" s="0">
         <v>266</v>
@@ -8946,7 +8946,7 @@
         <v>130</v>
       </c>
       <c r="B85" t="s" s="0">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C85" t="s" s="0">
         <v>266</v>
@@ -8957,7 +8957,7 @@
         <v>130</v>
       </c>
       <c r="B86" t="s" s="0">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C86" t="s" s="0">
         <v>266</v>
@@ -8968,7 +8968,7 @@
         <v>130</v>
       </c>
       <c r="B87" t="s" s="0">
-        <v>103</v>
+        <v>139</v>
       </c>
       <c r="C87" t="s" s="0">
         <v>266</v>
@@ -8979,7 +8979,7 @@
         <v>130</v>
       </c>
       <c r="B88" t="s" s="0">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="C88" t="s" s="0">
         <v>266</v>
@@ -8990,10 +8990,10 @@
         <v>130</v>
       </c>
       <c r="B89" t="s" s="0">
-        <v>66</v>
+        <v>103</v>
       </c>
       <c r="C89" t="s" s="0">
-        <v>264</v>
+        <v>266</v>
       </c>
     </row>
     <row r="90">
@@ -9001,18 +9001,18 @@
         <v>130</v>
       </c>
       <c r="B90" t="s" s="0">
-        <v>23</v>
+        <v>135</v>
       </c>
       <c r="C90" t="s" s="0">
-        <v>264</v>
+        <v>266</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="s" s="0">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B91" t="s" s="0">
-        <v>93</v>
+        <v>66</v>
       </c>
       <c r="C91" t="s" s="0">
         <v>264</v>
@@ -9020,10 +9020,10 @@
     </row>
     <row r="92">
       <c r="A92" t="s" s="0">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B92" t="s" s="0">
-        <v>150</v>
+        <v>23</v>
       </c>
       <c r="C92" t="s" s="0">
         <v>264</v>
@@ -9031,10 +9031,10 @@
     </row>
     <row r="93">
       <c r="A93" t="s" s="0">
-        <v>132</v>
+        <v>140</v>
       </c>
       <c r="B93" t="s" s="0">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="C93" t="s" s="0">
         <v>264</v>
@@ -9042,13 +9042,13 @@
     </row>
     <row r="94">
       <c r="A94" t="s" s="0">
-        <v>132</v>
+        <v>140</v>
       </c>
       <c r="B94" t="s" s="0">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="C94" t="s" s="0">
-        <v>264</v>
+        <v>242</v>
       </c>
     </row>
     <row r="95">
@@ -9056,7 +9056,7 @@
         <v>132</v>
       </c>
       <c r="B95" t="s" s="0">
-        <v>154</v>
+        <v>93</v>
       </c>
       <c r="C95" t="s" s="0">
         <v>264</v>
@@ -9067,7 +9067,7 @@
         <v>132</v>
       </c>
       <c r="B96" t="s" s="0">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="C96" t="s" s="0">
         <v>264</v>
@@ -9078,7 +9078,7 @@
         <v>132</v>
       </c>
       <c r="B97" t="s" s="0">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="C97" t="s" s="0">
         <v>264</v>
@@ -9089,7 +9089,7 @@
         <v>132</v>
       </c>
       <c r="B98" t="s" s="0">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="C98" t="s" s="0">
         <v>264</v>
@@ -9100,7 +9100,7 @@
         <v>132</v>
       </c>
       <c r="B99" t="s" s="0">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="C99" t="s" s="0">
         <v>264</v>
@@ -9111,10 +9111,10 @@
         <v>132</v>
       </c>
       <c r="B100" t="s" s="0">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="C100" t="s" s="0">
-        <v>257</v>
+        <v>264</v>
       </c>
     </row>
     <row r="101">
@@ -9122,18 +9122,18 @@
         <v>132</v>
       </c>
       <c r="B101" t="s" s="0">
-        <v>143</v>
+        <v>149</v>
       </c>
       <c r="C101" t="s" s="0">
-        <v>242</v>
+        <v>264</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="s" s="0">
-        <v>101</v>
+        <v>132</v>
       </c>
       <c r="B102" t="s" s="0">
-        <v>93</v>
+        <v>144</v>
       </c>
       <c r="C102" t="s" s="0">
         <v>264</v>
@@ -9141,10 +9141,10 @@
     </row>
     <row r="103">
       <c r="A103" t="s" s="0">
-        <v>101</v>
+        <v>132</v>
       </c>
       <c r="B103" t="s" s="0">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="C103" t="s" s="0">
         <v>264</v>
@@ -9152,24 +9152,24 @@
     </row>
     <row r="104">
       <c r="A104" t="s" s="0">
-        <v>101</v>
+        <v>132</v>
       </c>
       <c r="B104" t="s" s="0">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="C104" t="s" s="0">
-        <v>264</v>
+        <v>257</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="s" s="0">
-        <v>101</v>
+        <v>132</v>
       </c>
       <c r="B105" t="s" s="0">
-        <v>157</v>
+        <v>143</v>
       </c>
       <c r="C105" t="s" s="0">
-        <v>266</v>
+        <v>242</v>
       </c>
     </row>
     <row r="106">
@@ -9177,18 +9177,18 @@
         <v>101</v>
       </c>
       <c r="B106" t="s" s="0">
-        <v>155</v>
+        <v>93</v>
       </c>
       <c r="C106" t="s" s="0">
-        <v>242</v>
+        <v>264</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="s" s="0">
-        <v>67</v>
+        <v>101</v>
       </c>
       <c r="B107" t="s" s="0">
-        <v>93</v>
+        <v>156</v>
       </c>
       <c r="C107" t="s" s="0">
         <v>264</v>
@@ -9196,10 +9196,10 @@
     </row>
     <row r="108">
       <c r="A108" t="s" s="0">
-        <v>67</v>
+        <v>101</v>
       </c>
       <c r="B108" t="s" s="0">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C108" t="s" s="0">
         <v>264</v>
@@ -9207,24 +9207,24 @@
     </row>
     <row r="109">
       <c r="A109" t="s" s="0">
-        <v>67</v>
+        <v>101</v>
       </c>
       <c r="B109" t="s" s="0">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="C109" t="s" s="0">
-        <v>264</v>
+        <v>266</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="s" s="0">
-        <v>67</v>
+        <v>101</v>
       </c>
       <c r="B110" t="s" s="0">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="C110" t="s" s="0">
-        <v>264</v>
+        <v>242</v>
       </c>
     </row>
     <row r="111">
@@ -9232,10 +9232,10 @@
         <v>67</v>
       </c>
       <c r="B111" t="s" s="0">
-        <v>162</v>
+        <v>93</v>
       </c>
       <c r="C111" t="s" s="0">
-        <v>269</v>
+        <v>264</v>
       </c>
     </row>
     <row r="112">
@@ -9243,18 +9243,18 @@
         <v>67</v>
       </c>
       <c r="B112" t="s" s="0">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="C112" t="s" s="0">
-        <v>242</v>
+        <v>264</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="s" s="0">
-        <v>109</v>
+        <v>67</v>
       </c>
       <c r="B113" t="s" s="0">
-        <v>93</v>
+        <v>164</v>
       </c>
       <c r="C113" t="s" s="0">
         <v>264</v>
@@ -9262,10 +9262,10 @@
     </row>
     <row r="114">
       <c r="A114" t="s" s="0">
-        <v>109</v>
+        <v>67</v>
       </c>
       <c r="B114" t="s" s="0">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="C114" t="s" s="0">
         <v>264</v>
@@ -9273,24 +9273,24 @@
     </row>
     <row r="115">
       <c r="A115" t="s" s="0">
-        <v>109</v>
+        <v>67</v>
       </c>
       <c r="B115" t="s" s="0">
-        <v>175</v>
+        <v>162</v>
       </c>
       <c r="C115" t="s" s="0">
-        <v>264</v>
+        <v>269</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="s" s="0">
-        <v>109</v>
+        <v>67</v>
       </c>
       <c r="B116" t="s" s="0">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="C116" t="s" s="0">
-        <v>264</v>
+        <v>242</v>
       </c>
     </row>
     <row r="117">
@@ -9298,7 +9298,7 @@
         <v>109</v>
       </c>
       <c r="B117" t="s" s="0">
-        <v>176</v>
+        <v>93</v>
       </c>
       <c r="C117" t="s" s="0">
         <v>264</v>
@@ -9309,7 +9309,7 @@
         <v>109</v>
       </c>
       <c r="B118" t="s" s="0">
-        <v>173</v>
+        <v>166</v>
       </c>
       <c r="C118" t="s" s="0">
         <v>264</v>
@@ -9320,7 +9320,7 @@
         <v>109</v>
       </c>
       <c r="B119" t="s" s="0">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="C119" t="s" s="0">
         <v>264</v>
@@ -9331,7 +9331,7 @@
         <v>109</v>
       </c>
       <c r="B120" t="s" s="0">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C120" t="s" s="0">
         <v>264</v>
@@ -9342,7 +9342,7 @@
         <v>109</v>
       </c>
       <c r="B121" t="s" s="0">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="C121" t="s" s="0">
         <v>264</v>
@@ -9353,7 +9353,7 @@
         <v>109</v>
       </c>
       <c r="B122" t="s" s="0">
-        <v>167</v>
+        <v>173</v>
       </c>
       <c r="C122" t="s" s="0">
         <v>264</v>
@@ -9364,7 +9364,7 @@
         <v>109</v>
       </c>
       <c r="B123" t="s" s="0">
-        <v>165</v>
+        <v>171</v>
       </c>
       <c r="C123" t="s" s="0">
         <v>264</v>
@@ -9375,7 +9375,7 @@
         <v>109</v>
       </c>
       <c r="B124" t="s" s="0">
-        <v>144</v>
+        <v>169</v>
       </c>
       <c r="C124" t="s" s="0">
         <v>264</v>
@@ -9386,10 +9386,10 @@
         <v>109</v>
       </c>
       <c r="B125" t="s" s="0">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="C125" t="s" s="0">
-        <v>270</v>
+        <v>264</v>
       </c>
     </row>
     <row r="126">
@@ -9397,29 +9397,29 @@
         <v>109</v>
       </c>
       <c r="B126" t="s" s="0">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="C126" t="s" s="0">
-        <v>242</v>
+        <v>264</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="s" s="0">
-        <v>78</v>
+        <v>109</v>
       </c>
       <c r="B127" t="s" s="0">
-        <v>182</v>
+        <v>165</v>
       </c>
       <c r="C127" t="s" s="0">
-        <v>250</v>
+        <v>264</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="s" s="0">
-        <v>78</v>
+        <v>109</v>
       </c>
       <c r="B128" t="s" s="0">
-        <v>93</v>
+        <v>144</v>
       </c>
       <c r="C128" t="s" s="0">
         <v>264</v>
@@ -9427,24 +9427,24 @@
     </row>
     <row r="129">
       <c r="A129" t="s" s="0">
-        <v>78</v>
+        <v>109</v>
       </c>
       <c r="B129" t="s" s="0">
-        <v>185</v>
+        <v>174</v>
       </c>
       <c r="C129" t="s" s="0">
-        <v>264</v>
+        <v>270</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="s" s="0">
-        <v>78</v>
+        <v>109</v>
       </c>
       <c r="B130" t="s" s="0">
-        <v>156</v>
+        <v>170</v>
       </c>
       <c r="C130" t="s" s="0">
-        <v>264</v>
+        <v>242</v>
       </c>
     </row>
     <row r="131">
@@ -9452,10 +9452,10 @@
         <v>78</v>
       </c>
       <c r="B131" t="s" s="0">
-        <v>158</v>
+        <v>182</v>
       </c>
       <c r="C131" t="s" s="0">
-        <v>264</v>
+        <v>250</v>
       </c>
     </row>
     <row r="132">
@@ -9463,7 +9463,7 @@
         <v>78</v>
       </c>
       <c r="B132" t="s" s="0">
-        <v>184</v>
+        <v>93</v>
       </c>
       <c r="C132" t="s" s="0">
         <v>264</v>
@@ -9474,7 +9474,7 @@
         <v>78</v>
       </c>
       <c r="B133" t="s" s="0">
-        <v>177</v>
+        <v>185</v>
       </c>
       <c r="C133" t="s" s="0">
         <v>264</v>
@@ -9485,7 +9485,7 @@
         <v>78</v>
       </c>
       <c r="B134" t="s" s="0">
-        <v>183</v>
+        <v>156</v>
       </c>
       <c r="C134" t="s" s="0">
         <v>264</v>
@@ -9496,7 +9496,7 @@
         <v>78</v>
       </c>
       <c r="B135" t="s" s="0">
-        <v>180</v>
+        <v>158</v>
       </c>
       <c r="C135" t="s" s="0">
         <v>264</v>
@@ -9507,7 +9507,7 @@
         <v>78</v>
       </c>
       <c r="B136" t="s" s="0">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="C136" t="s" s="0">
         <v>264</v>
@@ -9518,7 +9518,7 @@
         <v>78</v>
       </c>
       <c r="B137" t="s" s="0">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C137" t="s" s="0">
         <v>264</v>
@@ -9529,7 +9529,7 @@
         <v>78</v>
       </c>
       <c r="B138" t="s" s="0">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="C138" t="s" s="0">
         <v>264</v>
@@ -9540,10 +9540,10 @@
         <v>78</v>
       </c>
       <c r="B139" t="s" s="0">
-        <v>5</v>
+        <v>180</v>
       </c>
       <c r="C139" t="s" s="0">
-        <v>271</v>
+        <v>264</v>
       </c>
     </row>
     <row r="140">
@@ -9551,7 +9551,7 @@
         <v>78</v>
       </c>
       <c r="B140" t="s" s="0">
-        <v>95</v>
+        <v>181</v>
       </c>
       <c r="C140" t="s" s="0">
         <v>264</v>
@@ -9562,10 +9562,10 @@
         <v>78</v>
       </c>
       <c r="B141" t="s" s="0">
-        <v>15</v>
+        <v>178</v>
       </c>
       <c r="C141" t="s" s="0">
-        <v>272</v>
+        <v>264</v>
       </c>
     </row>
     <row r="142">
@@ -9573,7 +9573,7 @@
         <v>78</v>
       </c>
       <c r="B142" t="s" s="0">
-        <v>23</v>
+        <v>179</v>
       </c>
       <c r="C142" t="s" s="0">
         <v>264</v>
@@ -9581,23 +9581,67 @@
     </row>
     <row r="143">
       <c r="A143" t="s" s="0">
-        <v>186</v>
+        <v>78</v>
       </c>
       <c r="B143" t="s" s="0">
-        <v>188</v>
+        <v>5</v>
       </c>
       <c r="C143" t="s" s="0">
-        <v>264</v>
+        <v>271</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="s" s="0">
+        <v>78</v>
+      </c>
+      <c r="B144" t="s" s="0">
+        <v>95</v>
+      </c>
+      <c r="C144" t="s" s="0">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="s" s="0">
+        <v>78</v>
+      </c>
+      <c r="B145" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="C145" t="s" s="0">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="s" s="0">
+        <v>78</v>
+      </c>
+      <c r="B146" t="s" s="0">
+        <v>23</v>
+      </c>
+      <c r="C146" t="s" s="0">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="s" s="0">
         <v>186</v>
       </c>
-      <c r="B144" t="s" s="0">
+      <c r="B147" t="s" s="0">
+        <v>188</v>
+      </c>
+      <c r="C147" t="s" s="0">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="s" s="0">
+        <v>186</v>
+      </c>
+      <c r="B148" t="s" s="0">
         <v>187</v>
       </c>
-      <c r="C144" t="s" s="0">
+      <c r="C148" t="s" s="0">
         <v>242</v>
       </c>
     </row>
@@ -9674,13 +9718,13 @@
         <v>4</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="C3" t="s" s="0">
         <v>18</v>
       </c>
       <c r="D3" t="s" s="0">
-        <v>196</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4">
@@ -9688,13 +9732,13 @@
         <v>4</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="C4" t="s" s="0">
         <v>18</v>
       </c>
       <c r="D4" t="s" s="0">
-        <v>7</v>
+        <v>196</v>
       </c>
     </row>
     <row r="5">
@@ -9716,13 +9760,13 @@
         <v>43</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="C6" t="s" s="0">
         <v>18</v>
       </c>
       <c r="D6" t="s" s="0">
-        <v>196</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7">
@@ -9730,13 +9774,13 @@
         <v>43</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="C7" t="s" s="0">
         <v>18</v>
       </c>
       <c r="D7" t="s" s="0">
-        <v>7</v>
+        <v>196</v>
       </c>
     </row>
     <row r="8">
@@ -9775,10 +9819,10 @@
         <v>200</v>
       </c>
       <c r="C10" t="s" s="0">
-        <v>49</v>
+        <v>6</v>
       </c>
       <c r="D10" t="s" s="0">
-        <v>54</v>
+        <v>46</v>
       </c>
     </row>
     <row r="11">
@@ -9817,10 +9861,10 @@
         <v>203</v>
       </c>
       <c r="C13" t="s" s="0">
-        <v>6</v>
+        <v>49</v>
       </c>
       <c r="D13" t="s" s="0">
-        <v>46</v>
+        <v>54</v>
       </c>
     </row>
     <row r="14">
@@ -9834,7 +9878,7 @@
         <v>49</v>
       </c>
       <c r="D14" t="s" s="0">
-        <v>14</v>
+        <v>152</v>
       </c>
     </row>
     <row r="15">
@@ -9848,7 +9892,7 @@
         <v>49</v>
       </c>
       <c r="D15" t="s" s="0">
-        <v>152</v>
+        <v>14</v>
       </c>
     </row>
     <row r="16">
@@ -9884,13 +9928,13 @@
         <v>72</v>
       </c>
       <c r="B18" t="s" s="0">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="C18" t="s" s="0">
         <v>18</v>
       </c>
       <c r="D18" t="s" s="0">
-        <v>196</v>
+        <v>7</v>
       </c>
     </row>
     <row r="19">
@@ -9898,13 +9942,13 @@
         <v>72</v>
       </c>
       <c r="B19" t="s" s="0">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="C19" t="s" s="0">
         <v>18</v>
       </c>
       <c r="D19" t="s" s="0">
-        <v>7</v>
+        <v>196</v>
       </c>
     </row>
     <row r="20">
@@ -10002,7 +10046,7 @@
         <v>49</v>
       </c>
       <c r="D26" t="s" s="0">
-        <v>86</v>
+        <v>14</v>
       </c>
     </row>
     <row r="27">
@@ -10016,7 +10060,7 @@
         <v>49</v>
       </c>
       <c r="D27" t="s" s="0">
-        <v>14</v>
+        <v>86</v>
       </c>
     </row>
     <row r="28">
@@ -10038,13 +10082,13 @@
         <v>96</v>
       </c>
       <c r="B29" t="s" s="0">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="C29" t="s" s="0">
         <v>18</v>
       </c>
       <c r="D29" t="s" s="0">
-        <v>196</v>
+        <v>7</v>
       </c>
     </row>
     <row r="30">
@@ -10052,13 +10096,13 @@
         <v>96</v>
       </c>
       <c r="B30" t="s" s="0">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="C30" t="s" s="0">
         <v>18</v>
       </c>
       <c r="D30" t="s" s="0">
-        <v>7</v>
+        <v>196</v>
       </c>
     </row>
     <row r="31">
@@ -10066,7 +10110,7 @@
         <v>99</v>
       </c>
       <c r="B31" t="s" s="0">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="C31" t="s" s="0">
         <v>49</v>
@@ -10080,7 +10124,7 @@
         <v>99</v>
       </c>
       <c r="B32" t="s" s="0">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="C32" t="s" s="0">
         <v>49</v>
@@ -10248,7 +10292,7 @@
         <v>94</v>
       </c>
       <c r="B44" t="s" s="0">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C44" t="s" s="0">
         <v>49</v>
@@ -10262,7 +10306,7 @@
         <v>94</v>
       </c>
       <c r="B45" t="s" s="0">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="C45" t="s" s="0">
         <v>49</v>
@@ -10276,7 +10320,7 @@
         <v>94</v>
       </c>
       <c r="B46" t="s" s="0">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C46" t="s" s="0">
         <v>49</v>
@@ -10304,13 +10348,13 @@
         <v>120</v>
       </c>
       <c r="B48" t="s" s="0">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="C48" t="s" s="0">
         <v>18</v>
       </c>
       <c r="D48" t="s" s="0">
-        <v>196</v>
+        <v>7</v>
       </c>
     </row>
     <row r="49">
@@ -10318,13 +10362,13 @@
         <v>120</v>
       </c>
       <c r="B49" t="s" s="0">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="C49" t="s" s="0">
         <v>18</v>
       </c>
       <c r="D49" t="s" s="0">
-        <v>7</v>
+        <v>196</v>
       </c>
     </row>
     <row r="50">
@@ -10332,13 +10376,13 @@
         <v>123</v>
       </c>
       <c r="B50" t="s" s="0">
-        <v>200</v>
+        <v>226</v>
       </c>
       <c r="C50" t="s" s="0">
-        <v>49</v>
+        <v>6</v>
       </c>
       <c r="D50" t="s" s="0">
-        <v>126</v>
+        <v>123</v>
       </c>
     </row>
     <row r="51">
@@ -10346,7 +10390,7 @@
         <v>123</v>
       </c>
       <c r="B51" t="s" s="0">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="C51" t="s" s="0">
         <v>6</v>
@@ -10360,7 +10404,7 @@
         <v>123</v>
       </c>
       <c r="B52" t="s" s="0">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="C52" t="s" s="0">
         <v>6</v>
@@ -10374,13 +10418,13 @@
         <v>123</v>
       </c>
       <c r="B53" t="s" s="0">
-        <v>228</v>
+        <v>203</v>
       </c>
       <c r="C53" t="s" s="0">
-        <v>6</v>
+        <v>49</v>
       </c>
       <c r="D53" t="s" s="0">
-        <v>123</v>
+        <v>126</v>
       </c>
     </row>
     <row r="54">
@@ -10402,13 +10446,13 @@
         <v>127</v>
       </c>
       <c r="B55" t="s" s="0">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="C55" t="s" s="0">
         <v>18</v>
       </c>
       <c r="D55" t="s" s="0">
-        <v>196</v>
+        <v>7</v>
       </c>
     </row>
     <row r="56">
@@ -10416,13 +10460,13 @@
         <v>127</v>
       </c>
       <c r="B56" t="s" s="0">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="C56" t="s" s="0">
         <v>18</v>
       </c>
       <c r="D56" t="s" s="0">
-        <v>7</v>
+        <v>196</v>
       </c>
     </row>
     <row r="57">
@@ -10430,13 +10474,13 @@
         <v>130</v>
       </c>
       <c r="B57" t="s" s="0">
-        <v>215</v>
+        <v>229</v>
       </c>
       <c r="C57" t="s" s="0">
         <v>49</v>
       </c>
       <c r="D57" t="s" s="0">
-        <v>14</v>
+        <v>123</v>
       </c>
     </row>
     <row r="58">
@@ -10444,13 +10488,13 @@
         <v>130</v>
       </c>
       <c r="B58" t="s" s="0">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="C58" t="s" s="0">
         <v>49</v>
       </c>
       <c r="D58" t="s" s="0">
-        <v>14</v>
+        <v>148</v>
       </c>
     </row>
     <row r="59">
@@ -10458,13 +10502,13 @@
         <v>130</v>
       </c>
       <c r="B59" t="s" s="0">
-        <v>230</v>
+        <v>221</v>
       </c>
       <c r="C59" t="s" s="0">
         <v>49</v>
       </c>
       <c r="D59" t="s" s="0">
-        <v>148</v>
+        <v>14</v>
       </c>
     </row>
     <row r="60">
@@ -10478,7 +10522,7 @@
         <v>49</v>
       </c>
       <c r="D60" t="s" s="0">
-        <v>46</v>
+        <v>148</v>
       </c>
     </row>
     <row r="61">
@@ -10492,7 +10536,7 @@
         <v>49</v>
       </c>
       <c r="D61" t="s" s="0">
-        <v>152</v>
+        <v>46</v>
       </c>
     </row>
     <row r="62">
@@ -10506,7 +10550,7 @@
         <v>49</v>
       </c>
       <c r="D62" t="s" s="0">
-        <v>14</v>
+        <v>152</v>
       </c>
     </row>
     <row r="63">
@@ -10520,7 +10564,7 @@
         <v>49</v>
       </c>
       <c r="D63" t="s" s="0">
-        <v>123</v>
+        <v>14</v>
       </c>
     </row>
     <row r="64">
@@ -10534,7 +10578,7 @@
         <v>49</v>
       </c>
       <c r="D64" t="s" s="0">
-        <v>148</v>
+        <v>14</v>
       </c>
     </row>
     <row r="65">
@@ -10556,13 +10600,13 @@
         <v>140</v>
       </c>
       <c r="B66" t="s" s="0">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="C66" t="s" s="0">
         <v>18</v>
       </c>
       <c r="D66" t="s" s="0">
-        <v>196</v>
+        <v>7</v>
       </c>
     </row>
     <row r="67">
@@ -10570,13 +10614,13 @@
         <v>140</v>
       </c>
       <c r="B67" t="s" s="0">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="C67" t="s" s="0">
         <v>18</v>
       </c>
       <c r="D67" t="s" s="0">
-        <v>7</v>
+        <v>196</v>
       </c>
     </row>
     <row r="68">
@@ -10584,13 +10628,13 @@
         <v>132</v>
       </c>
       <c r="B68" t="s" s="0">
-        <v>231</v>
+        <v>221</v>
       </c>
       <c r="C68" t="s" s="0">
         <v>49</v>
       </c>
       <c r="D68" t="s" s="0">
-        <v>46</v>
+        <v>14</v>
       </c>
     </row>
     <row r="69">
@@ -10612,13 +10656,13 @@
         <v>132</v>
       </c>
       <c r="B70" t="s" s="0">
-        <v>215</v>
+        <v>233</v>
       </c>
       <c r="C70" t="s" s="0">
         <v>49</v>
       </c>
       <c r="D70" t="s" s="0">
-        <v>14</v>
+        <v>152</v>
       </c>
     </row>
     <row r="71">
@@ -10626,13 +10670,13 @@
         <v>132</v>
       </c>
       <c r="B71" t="s" s="0">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="C71" t="s" s="0">
         <v>49</v>
       </c>
       <c r="D71" t="s" s="0">
-        <v>14</v>
+        <v>148</v>
       </c>
     </row>
     <row r="72">
@@ -10646,7 +10690,7 @@
         <v>49</v>
       </c>
       <c r="D72" t="s" s="0">
-        <v>14</v>
+        <v>123</v>
       </c>
     </row>
     <row r="73">
@@ -10654,13 +10698,13 @@
         <v>132</v>
       </c>
       <c r="B73" t="s" s="0">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="C73" t="s" s="0">
         <v>49</v>
       </c>
       <c r="D73" t="s" s="0">
-        <v>123</v>
+        <v>14</v>
       </c>
     </row>
     <row r="74">
@@ -10668,13 +10712,13 @@
         <v>132</v>
       </c>
       <c r="B74" t="s" s="0">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="C74" t="s" s="0">
         <v>49</v>
       </c>
       <c r="D74" t="s" s="0">
-        <v>152</v>
+        <v>14</v>
       </c>
     </row>
     <row r="75">
@@ -10682,13 +10726,13 @@
         <v>132</v>
       </c>
       <c r="B75" t="s" s="0">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="C75" t="s" s="0">
         <v>49</v>
       </c>
       <c r="D75" t="s" s="0">
-        <v>148</v>
+        <v>46</v>
       </c>
     </row>
     <row r="76">
@@ -10696,7 +10740,7 @@
         <v>101</v>
       </c>
       <c r="B76" t="s" s="0">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="C76" t="s" s="0">
         <v>49</v>
@@ -10710,7 +10754,7 @@
         <v>101</v>
       </c>
       <c r="B77" t="s" s="0">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="C77" t="s" s="0">
         <v>49</v>
@@ -10724,13 +10768,13 @@
         <v>67</v>
       </c>
       <c r="B78" t="s" s="0">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C78" t="s" s="0">
         <v>49</v>
       </c>
       <c r="D78" t="s" s="0">
-        <v>161</v>
+        <v>14</v>
       </c>
     </row>
     <row r="79">
@@ -10744,7 +10788,7 @@
         <v>49</v>
       </c>
       <c r="D79" t="s" s="0">
-        <v>14</v>
+        <v>152</v>
       </c>
     </row>
     <row r="80">
@@ -10752,13 +10796,13 @@
         <v>67</v>
       </c>
       <c r="B80" t="s" s="0">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="C80" t="s" s="0">
         <v>49</v>
       </c>
       <c r="D80" t="s" s="0">
-        <v>152</v>
+        <v>161</v>
       </c>
     </row>
     <row r="81">
@@ -10766,7 +10810,7 @@
         <v>109</v>
       </c>
       <c r="B81" t="s" s="0">
-        <v>217</v>
+        <v>222</v>
       </c>
       <c r="C81" t="s" s="0">
         <v>49</v>
@@ -10780,7 +10824,7 @@
         <v>109</v>
       </c>
       <c r="B82" t="s" s="0">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="C82" t="s" s="0">
         <v>49</v>
@@ -10794,7 +10838,7 @@
         <v>109</v>
       </c>
       <c r="B83" t="s" s="0">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="C83" t="s" s="0">
         <v>49</v>
@@ -10808,7 +10852,7 @@
         <v>109</v>
       </c>
       <c r="B84" t="s" s="0">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="C84" t="s" s="0">
         <v>49</v>
@@ -10822,7 +10866,7 @@
         <v>109</v>
       </c>
       <c r="B85" t="s" s="0">
-        <v>215</v>
+        <v>225</v>
       </c>
       <c r="C85" t="s" s="0">
         <v>49</v>
@@ -10836,7 +10880,7 @@
         <v>109</v>
       </c>
       <c r="B86" t="s" s="0">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="C86" t="s" s="0">
         <v>49</v>
@@ -10850,7 +10894,7 @@
         <v>109</v>
       </c>
       <c r="B87" t="s" s="0">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="C87" t="s" s="0">
         <v>49</v>
@@ -10864,7 +10908,7 @@
         <v>109</v>
       </c>
       <c r="B88" t="s" s="0">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="C88" t="s" s="0">
         <v>49</v>
@@ -10892,7 +10936,7 @@
         <v>109</v>
       </c>
       <c r="B90" t="s" s="0">
-        <v>225</v>
+        <v>219</v>
       </c>
       <c r="C90" t="s" s="0">
         <v>49</v>
@@ -10906,7 +10950,7 @@
         <v>109</v>
       </c>
       <c r="B91" t="s" s="0">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="C91" t="s" s="0">
         <v>49</v>
@@ -10920,13 +10964,13 @@
         <v>78</v>
       </c>
       <c r="B92" t="s" s="0">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="C92" t="s" s="0">
         <v>49</v>
       </c>
       <c r="D92" t="s" s="0">
-        <v>148</v>
+        <v>14</v>
       </c>
     </row>
     <row r="93">
@@ -10934,13 +10978,13 @@
         <v>78</v>
       </c>
       <c r="B93" t="s" s="0">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="C93" t="s" s="0">
         <v>49</v>
       </c>
       <c r="D93" t="s" s="0">
-        <v>14</v>
+        <v>148</v>
       </c>
     </row>
     <row r="94">
@@ -10976,7 +11020,7 @@
         <v>78</v>
       </c>
       <c r="B96" t="s" s="0">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="C96" t="s" s="0">
         <v>49</v>
@@ -11004,13 +11048,13 @@
         <v>186</v>
       </c>
       <c r="B98" t="s" s="0">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="C98" t="s" s="0">
         <v>18</v>
       </c>
       <c r="D98" t="s" s="0">
-        <v>196</v>
+        <v>7</v>
       </c>
     </row>
     <row r="99">
@@ -11018,13 +11062,13 @@
         <v>186</v>
       </c>
       <c r="B99" t="s" s="0">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="C99" t="s" s="0">
         <v>18</v>
       </c>
       <c r="D99" t="s" s="0">
-        <v>7</v>
+        <v>196</v>
       </c>
     </row>
   </sheetData>
